--- a/Assets/Scripts/Editor/Excel/Items.xlsx
+++ b/Assets/Scripts/Editor/Excel/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\taptap\Assets\Scripts\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707ABDB3-C278-4A1C-828D-EF7E3F199F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCE3B73-BF09-45C6-8622-600D7C4EE94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="4245" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="3270" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemInfo" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
